--- a/src/test/resources/excelData/ExcelData.xlsx
+++ b/src/test/resources/excelData/ExcelData.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE30165-BC82-43C2-87D6-CFB24539279F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{DAAD4CBD-C889-419F-9BBF-2244BAEFB05F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1837" yWindow="1837" windowWidth="20746" windowHeight="13906" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>username</t>
   </si>
@@ -127,76 +128,10 @@
     <t>password16</t>
   </si>
   <si>
-    <t>Hari</t>
-  </si>
-  <si>
-    <t>Date::2019-05-03</t>
-  </si>
-  <si>
-    <t>Date::2019-05-03 1556924884157</t>
-  </si>
-  <si>
-    <t>Date::2019-05-03T20:11:10.102 1556925070103</t>
-  </si>
-  <si>
-    <t>Date::2019-05-03T20:11:55.285</t>
-  </si>
-  <si>
-    <t>date &amp; time::2019-05-03T20:12:42.844</t>
-  </si>
-  <si>
-    <t>date &amp; time::2019-05-03T20:13:20.469</t>
-  </si>
-  <si>
-    <t>date &amp; time::2019-05-03T20:13:57.513</t>
-  </si>
-  <si>
-    <t>date &amp; time::2019-05-03T20:14:08.009</t>
-  </si>
-  <si>
-    <t>date &amp; time::2019-05-09T23:27:16.206</t>
-  </si>
-  <si>
-    <t>date &amp; time::2019-05-09T23:27:46.665</t>
-  </si>
-  <si>
-    <t>date &amp; time::2019-05-09T23:30:25.433</t>
-  </si>
-  <si>
-    <t>date &amp; time::2019-05-10T19:38:59.596</t>
-  </si>
-  <si>
-    <t>date &amp; time::2019-05-10T19:39:53.097</t>
-  </si>
-  <si>
-    <t>date &amp; time::2019-05-10T19:40:53.507</t>
-  </si>
-  <si>
-    <t>date &amp; time::2019-05-11T08:33:04.702</t>
-  </si>
-  <si>
-    <t>date &amp; time::2019-05-11T08:34:19.779</t>
-  </si>
-  <si>
-    <t>date &amp; time::2019-05-11T08:38:32.823</t>
-  </si>
-  <si>
-    <t>date &amp; time::2019-05-11T08:38:57.568</t>
-  </si>
-  <si>
-    <t>date &amp; time::2019-05-11T08:39:44.987</t>
-  </si>
-  <si>
-    <t>date &amp; time::2019-05-11T08:42:15.672</t>
-  </si>
-  <si>
-    <t>date &amp; time::2019-05-18T13:44:33.411</t>
-  </si>
-  <si>
-    <t>date &amp; time::2021-04-14T22:47:34.462151</t>
-  </si>
-  <si>
-    <t>date &amp; time::2021-04-14T23:11:57.883549</t>
+    <t>date &amp; time::2021-04-15T00:12:14.187560</t>
+  </si>
+  <si>
+    <t>date &amp; time::2021-04-15T00:15:49.209999</t>
   </si>
 </sst>
 </file>
@@ -539,8 +474,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.46484375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.19921875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="30.73046875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="35.265625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
@@ -562,7 +498,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
